--- a/0706_output_rastrigin.xlsx
+++ b/0706_output_rastrigin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/zemi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D372841C-CE01-C44E-8505-06D699B09058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C676F4-3F57-234B-A8E0-F5831C8531E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10295,16 +10295,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1422400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>1511300</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25799,7 +25799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
       <selection activeCell="AL1" sqref="AL1:BC32"/>
     </sheetView>
   </sheetViews>
